--- a/checklistGenerator/xlsx/Metalica.xlsx
+++ b/checklistGenerator/xlsx/Metalica.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.: .....</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+  <si>
+    <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.:</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUS:</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Comanda nr.:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nr.:</t>
+    <t xml:space="preserve">Numar usi.:</t>
   </si>
   <si>
     <t xml:space="preserve">Dimensiuni (LxH):</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">.....x..... mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Tel.:</t>
+    <t xml:space="preserve">Tel:</t>
   </si>
   <si>
     <t xml:space="preserve">0722 399 907</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nr. bucăți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod articol</t>
   </si>
   <si>
     <t xml:space="preserve">Observații</t>
@@ -269,29 +266,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -306,51 +307,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,22 +361,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -408,10 +385,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2372040</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2850840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -424,12 +401,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6501600" y="0"/>
-          <a:ext cx="2853000" cy="1251360"/>
+          <a:off x="6494760" y="0"/>
+          <a:ext cx="2850840" cy="1249920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -440,27 +418,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -477,59 +561,69 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -537,318 +631,294 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="n">
+      <c r="D20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" s="15" customFormat="true" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25"/>
-      <c r="C49" s="26" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C53" s="2"/>
@@ -859,11 +929,11 @@
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="27"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="2"/>
     </row>
     <row r="1048548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -897,13 +967,13 @@
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:F48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" display="www.da-te.ro"/>
+    <hyperlink ref="G10" r:id="rId1" display="www.da-te.ro"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.747916666666667" top="0.6" bottom="0.6" header="0.511811023622047" footer="0.511811023622047"/>

--- a/checklistGenerator/xlsx/Metalica.xlsx
+++ b/checklistGenerator/xlsx/Metalica.xlsx
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,6 +199,13 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -266,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +368,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -386,9 +397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2850840</xdr:colOff>
+      <xdr:colOff>2850480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -402,7 +413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6494760" y="0"/>
-          <a:ext cx="2850840" cy="1249920"/>
+          <a:ext cx="2850480" cy="1249560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,8 +542,8 @@
   </sheetPr>
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,11 +940,11 @@
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="22"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="22"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="2"/>
     </row>
     <row r="1048548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
